--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>-0.322423198213977</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.606724763472474</v>
+        <v>-1.602655924043912</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05981677579738962</v>
+        <v>0.06447587239643965</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1875765315548034</v>
+        <v>-0.1869248876385849</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3295484561911735</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.542496126218239</v>
+        <v>-1.537005947523142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08550004579965294</v>
+        <v>0.0906864388043387</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.188799544412054</v>
+        <v>-0.1882328975283858</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3494396513147131</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.648187575165777</v>
+        <v>-1.644027442628179</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09852190599017352</v>
+        <v>0.1034580299545725</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1865691593171709</v>
+        <v>-0.1858860350185265</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3769459810160236</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.696413160013748</v>
+        <v>-1.691749341357334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1405765488730853</v>
+        <v>0.1464869906735694</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2175049311272147</v>
+        <v>-0.2167887524270229</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4033614466308953</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.780889979244395</v>
+        <v>-1.780846693718559</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2278905375698771</v>
+        <v>0.2355843430347948</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2655518648049182</v>
+        <v>-0.2664994243159412</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.418991515918016</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.707328982619968</v>
+        <v>-1.708640140548011</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3007392905419155</v>
+        <v>0.3099158220190985</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2762394546385498</v>
+        <v>-0.2775994071593536</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4181753367037531</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.536745447358567</v>
+        <v>-1.540581331957176</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3718172720024907</v>
+        <v>0.3798998601903697</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2785438186321341</v>
+        <v>-0.2806986508091947</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4016452073334676</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.180873890204573</v>
+        <v>-1.185506228478561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4026349923784368</v>
+        <v>0.4092883712041748</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2738091691152616</v>
+        <v>-0.2765841648261147</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3727134196462338</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.782459744240064</v>
+        <v>-0.788233246376995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.44127873582549</v>
+        <v>0.4485632963188696</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2343390656295255</v>
+        <v>-0.237450901432337</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3348875148392303</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2572977085328174</v>
+        <v>-0.2614893214528411</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4122113247124302</v>
+        <v>0.4198626316610728</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1762577600535301</v>
+        <v>-0.1797678226940307</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2897940078523588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3140161418300868</v>
+        <v>0.310981432964219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2858081451572572</v>
+        <v>0.2934673222015063</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.121925768024473</v>
+        <v>-0.1259599790323667</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.238455253963718</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8966031171397465</v>
+        <v>0.8940626502779672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09073051133973511</v>
+        <v>0.09723593236807086</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008812031910441675</v>
+        <v>-0.01222293134630027</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1810061683983517</v>
       </c>
       <c r="E14" t="n">
-        <v>1.598747862846043</v>
+        <v>1.601280459612215</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008415607372194352</v>
+        <v>0.01735603598118226</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08859456739213009</v>
+        <v>0.08577549914588056</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1176664556761179</v>
       </c>
       <c r="E15" t="n">
-        <v>2.261148625739496</v>
+        <v>2.269668791243097</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1354796466779932</v>
+        <v>-0.1245622500526517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2058920463305786</v>
+        <v>0.2027597482791903</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.04903604794585777</v>
       </c>
       <c r="E16" t="n">
-        <v>2.861534609272824</v>
+        <v>2.871424171411956</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2627831651705502</v>
+        <v>-0.2487555067615185</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3097804563746666</v>
+        <v>0.306034290865971</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.02602738130406177</v>
       </c>
       <c r="E17" t="n">
-        <v>3.398901589246636</v>
+        <v>3.408279595171346</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3772773160539623</v>
+        <v>-0.3581215033477329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3950545162902527</v>
+        <v>0.3910140092058738</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1075021231614436</v>
       </c>
       <c r="E18" t="n">
-        <v>3.871105751617721</v>
+        <v>3.881676864036377</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5570822423375037</v>
+        <v>-0.5360486248195626</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4923163058336648</v>
+        <v>0.4866844654176509</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1935260670117073</v>
       </c>
       <c r="E19" t="n">
-        <v>4.246507738028814</v>
+        <v>4.25732124939215</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7594412886101628</v>
+        <v>-0.7368730024489535</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6144113950538379</v>
+        <v>0.6084553066988361</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2860239996897125</v>
       </c>
       <c r="E20" t="n">
-        <v>4.522993640800007</v>
+        <v>4.531272981378049</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9674990711114909</v>
+        <v>-0.9437305953702899</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7207269425829715</v>
+        <v>0.715044733555076</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3897666879452815</v>
       </c>
       <c r="E21" t="n">
-        <v>4.732155597714928</v>
+        <v>4.738539819270923</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.089291161650814</v>
+        <v>-1.063025504573669</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8632748362653258</v>
+        <v>0.8585622230161515</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5065110858887706</v>
       </c>
       <c r="E22" t="n">
-        <v>4.879493231583401</v>
+        <v>4.884174364450149</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.257746623060217</v>
+        <v>-1.230010832123777</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9640860389272708</v>
+        <v>0.9596819334258715</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6334279813788734</v>
       </c>
       <c r="E23" t="n">
-        <v>4.926816116465305</v>
+        <v>4.928371247357151</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.50747656179798</v>
+        <v>-1.482769970660484</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0181425776101</v>
+        <v>1.012329724995137</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7636704113494215</v>
       </c>
       <c r="E24" t="n">
-        <v>4.977420831215123</v>
+        <v>4.976597619214682</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.714355403977454</v>
+        <v>-1.692194001759101</v>
       </c>
       <c r="G24" t="n">
-        <v>1.114242741041993</v>
+        <v>1.109696973819676</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.888780631108985</v>
       </c>
       <c r="E25" t="n">
-        <v>4.944955112819175</v>
+        <v>4.941212095348722</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.874434722632855</v>
+        <v>-1.854181818599079</v>
       </c>
       <c r="G25" t="n">
-        <v>1.161316930902732</v>
+        <v>1.15706707927522</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.00058757757212</v>
       </c>
       <c r="E26" t="n">
-        <v>4.93287136802495</v>
+        <v>4.929321954906416</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.93673833450174</v>
+        <v>-1.916276085924831</v>
       </c>
       <c r="G26" t="n">
-        <v>1.190274160677301</v>
+        <v>1.186210043306103</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.093140017942652</v>
       </c>
       <c r="E27" t="n">
-        <v>4.839629623317339</v>
+        <v>4.834060743666178</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.02250112735449</v>
+        <v>-2.004128389161107</v>
       </c>
       <c r="G27" t="n">
-        <v>1.210440493659405</v>
+        <v>1.206340173848417</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.161777539330589</v>
       </c>
       <c r="E28" t="n">
-        <v>4.722261313518432</v>
+        <v>4.716204487939667</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.087028041232212</v>
+        <v>-2.070435518665021</v>
       </c>
       <c r="G28" t="n">
-        <v>1.199117000100768</v>
+        <v>1.194775855364221</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.203459568742819</v>
       </c>
       <c r="E29" t="n">
-        <v>4.599851420473999</v>
+        <v>4.592667597204382</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.178577715384423</v>
+        <v>-2.165928110716091</v>
       </c>
       <c r="G29" t="n">
-        <v>1.164329603500902</v>
+        <v>1.159923923980381</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.218557203583489</v>
       </c>
       <c r="E30" t="n">
-        <v>4.496864923386416</v>
+        <v>4.488179485875079</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.18076402794391</v>
+        <v>-2.169126517570573</v>
       </c>
       <c r="G30" t="n">
-        <v>1.117974740378596</v>
+        <v>1.112634093500023</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.208508880171184</v>
       </c>
       <c r="E31" t="n">
-        <v>4.309514149435359</v>
+        <v>4.300589461017585</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.144388446050651</v>
+        <v>-2.134326528817736</v>
       </c>
       <c r="G31" t="n">
-        <v>1.051740015754264</v>
+        <v>1.046378906627113</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.174991306826998</v>
       </c>
       <c r="E32" t="n">
-        <v>4.124300893451029</v>
+        <v>4.114411331311897</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.06273856516186</v>
+        <v>-2.052135185351218</v>
       </c>
       <c r="G32" t="n">
-        <v>1.025022615189306</v>
+        <v>1.019266427262709</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.120897046544608</v>
       </c>
       <c r="E33" t="n">
-        <v>3.908587868953254</v>
+        <v>3.897656306155821</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.006243870860136</v>
+        <v>-1.996660455440097</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9425676235199691</v>
+        <v>0.9375527985995051</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.049364892047773</v>
       </c>
       <c r="E34" t="n">
-        <v>3.695020232517813</v>
+        <v>3.682569741268325</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.907172746336788</v>
+        <v>-1.896738573581686</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8522960528942534</v>
+        <v>0.8460912695180861</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9635673573216279</v>
       </c>
       <c r="E35" t="n">
-        <v>3.455915709858389</v>
+        <v>3.443339297079197</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.843414740799822</v>
+        <v>-1.83308996237365</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7828676434728014</v>
+        <v>0.7763968508651342</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8676573375944586</v>
       </c>
       <c r="E36" t="n">
-        <v>3.221799253794368</v>
+        <v>3.20895053570719</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.762173317873009</v>
+        <v>-1.750737281947198</v>
       </c>
       <c r="G36" t="n">
-        <v>0.729398213922217</v>
+        <v>0.7236892465692594</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7675286565501317</v>
       </c>
       <c r="E37" t="n">
-        <v>3.034582271468622</v>
+        <v>3.023559415562153</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.688533620292517</v>
+        <v>-1.675033258289121</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6684883959852442</v>
+        <v>0.6625055493051804</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6684394287395531</v>
       </c>
       <c r="E38" t="n">
-        <v>2.801561332713025</v>
+        <v>2.788248278985064</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.619833981724227</v>
+        <v>-1.607127712367527</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5886541461528734</v>
+        <v>0.5819031781416147</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5745245671682098</v>
       </c>
       <c r="E39" t="n">
-        <v>2.553363701589848</v>
+        <v>2.539424188251608</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.569481897043378</v>
+        <v>-1.556219211927299</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5300628583815766</v>
+        <v>0.5247584139427933</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4903849068897661</v>
       </c>
       <c r="E40" t="n">
-        <v>2.307092669871142</v>
+        <v>2.293614344135444</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.500025155277743</v>
+        <v>-1.486605855259094</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5027111281107346</v>
+        <v>0.4978757413700988</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4178037032873538</v>
       </c>
       <c r="E41" t="n">
-        <v>2.106046355545648</v>
+        <v>2.091522881113406</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.476378666018443</v>
+        <v>-1.46365744348009</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4302007892497758</v>
+        <v>0.4240369303707623</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3562796527877843</v>
       </c>
       <c r="E42" t="n">
-        <v>1.90120822915694</v>
+        <v>1.887421395673467</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.440948282607525</v>
+        <v>-1.428006697392191</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4131100896306929</v>
+        <v>0.4084982136052819</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3052510369915529</v>
       </c>
       <c r="E43" t="n">
-        <v>1.755691735411813</v>
+        <v>1.743195597607807</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.405588730057066</v>
+        <v>-1.393785160666432</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3681167530483127</v>
+        <v>0.3630043389423281</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2628846472368041</v>
       </c>
       <c r="E44" t="n">
-        <v>1.521323436288383</v>
+        <v>1.507446883714996</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.365378837584318</v>
+        <v>-1.353853082568594</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3148582420599826</v>
+        <v>0.3101519248872936</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2266383384699412</v>
       </c>
       <c r="E45" t="n">
-        <v>1.323785610584268</v>
+        <v>1.308342908985187</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.310885508595328</v>
+        <v>-1.299705250776729</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2973409832590273</v>
+        <v>0.2938387907141333</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1948773387565196</v>
       </c>
       <c r="E46" t="n">
-        <v>1.164074612403251</v>
+        <v>1.149151337114199</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.265031183553596</v>
+        <v>-1.254871677135161</v>
       </c>
       <c r="G46" t="n">
-        <v>0.27413364533457</v>
+        <v>0.2713271692412909</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1667679557408524</v>
       </c>
       <c r="E47" t="n">
-        <v>1.016526059972525</v>
+        <v>1.002754966680265</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.187142421355153</v>
+        <v>-1.176674407188943</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2446396750396377</v>
+        <v>0.2427036315204378</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1410924074098948</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8686815919469936</v>
+        <v>0.854853833966367</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.167200386097834</v>
+        <v>-1.15883447446812</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2052640127011797</v>
+        <v>0.203496389227959</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1169446089257264</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7376602402899243</v>
+        <v>0.7255355709985452</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.086779814142778</v>
+        <v>-1.077050014944458</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1651249510888908</v>
+        <v>0.1642088719602938</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.09407391512059796</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6049672803260338</v>
+        <v>0.5922948523804419</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.029495749251722</v>
+        <v>-1.019687249097337</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1225619000297989</v>
+        <v>0.1215403616200748</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.0722602443565443</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4874368465576326</v>
+        <v>0.4740907384281242</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.968766156504138</v>
+        <v>-0.9581863869803154</v>
       </c>
       <c r="G51" t="n">
-        <v>0.101984748057035</v>
+        <v>0.1013913428483047</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05128127221659622</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3681419373542535</v>
+        <v>0.3553845123761115</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9422462953389034</v>
+        <v>-0.9317208294747656</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06013157962164975</v>
+        <v>0.059316237716816</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03206777589710756</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2093422962444698</v>
+        <v>0.1948188218122283</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9229905324184714</v>
+        <v>-0.9132017075031024</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02282890046594475</v>
+        <v>0.02203716884793051</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.01477236044646897</v>
       </c>
       <c r="E54" t="n">
-        <v>0.105523143041719</v>
+        <v>0.09225730988739679</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8760359680109505</v>
+        <v>-0.8655081411181309</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01370250932032291</v>
+        <v>-0.01500894519100248</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0003757066682588597</v>
       </c>
       <c r="E55" t="n">
-        <v>0.009347426692004361</v>
+        <v>-0.002061063899183025</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.849772671962488</v>
+        <v>-0.8381548368281676</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04201124321691578</v>
+        <v>-0.04302491153103342</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01332863759974165</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08747993357392875</v>
+        <v>-0.09946923722087608</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8478846360264878</v>
+        <v>-0.8362770320164559</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0482191746313257</v>
+        <v>-0.04855286668504144</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02430657974441845</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2206403772168456</v>
+        <v>-0.2340950926657239</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8362675879017281</v>
+        <v>-0.8241602328206832</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09005975091374058</v>
+        <v>-0.09051936449716037</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03363653740530652</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3087492455698942</v>
+        <v>-0.3220969277185241</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7871109707435076</v>
+        <v>-0.7720617739247517</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1219698405598694</v>
+        <v>-0.1227521280631559</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04195284413241775</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4285982095039712</v>
+        <v>-0.443600185749088</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8396454329360393</v>
+        <v>-0.8260679439956996</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1490398214079987</v>
+        <v>-0.149795350586223</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.0499610100874073</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4897535744238669</v>
+        <v>-0.5041495533072829</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8124810109406321</v>
+        <v>-0.7972098774257728</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1676006548863763</v>
+        <v>-0.1679532351695477</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.05811051805771682</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5895038881980553</v>
+        <v>-0.6042319851160659</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8318209838840536</v>
+        <v>-0.8166269773061381</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2002222011753331</v>
+        <v>-0.201111521978868</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.06687242547115235</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.67873345816547</v>
+        <v>-0.6933718359935664</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8734356884225618</v>
+        <v>-0.8583746864603962</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2256977006535847</v>
+        <v>-0.2257606614184368</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.07659875285285687</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7621753598238621</v>
+        <v>-0.7774512153960852</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8749435987407679</v>
+        <v>-0.8595008971416869</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2394640718884806</v>
+        <v>-0.2394184253339628</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.08748072559919468</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8118986238657508</v>
+        <v>-0.8275270597211454</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8830513712345878</v>
+        <v>-0.8671514170807688</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2662255449888348</v>
+        <v>-0.266650530151586</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.09972597004445802</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8901604285959422</v>
+        <v>-0.9043934965003038</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.885738221874648</v>
+        <v>-0.8696753567417745</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2781597579665367</v>
+        <v>-0.278271513324149</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1134205503403933</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.918764291077779</v>
+        <v>-0.9326282514981955</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8965139567790725</v>
+        <v>-0.8804589617418055</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2926470299589882</v>
+        <v>-0.2932136768426564</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1285607462131539</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.988901796113377</v>
+        <v>-1.002583170315723</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8722606831485109</v>
+        <v>-0.8551731315676706</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2868955640897555</v>
+        <v>-0.2861542010836229</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1445952896375535</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.009991291310124</v>
+        <v>-1.023052501978677</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9272348749790587</v>
+        <v>-0.9106281862397758</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3080551031374006</v>
+        <v>-0.3078363144795399</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1615381841344962</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.022239521102526</v>
+        <v>-1.034962317659999</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.908462335928866</v>
+        <v>-0.8908191555982067</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3252717242861876</v>
+        <v>-0.3249191440030162</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1789745247517824</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.02685533217574</v>
+        <v>-1.037704258969305</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.942199861774825</v>
+        <v>-0.9246676497922173</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3251332106035131</v>
+        <v>-0.324541379413904</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1964806409809016</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9935868640279285</v>
+        <v>-1.0035236467407</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9860496734655801</v>
+        <v>-0.9687354631312727</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3218970272901189</v>
+        <v>-0.3205355007501938</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2136483011887971</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9312423276618902</v>
+        <v>-0.9391344595360919</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.043731178184765</v>
+        <v>-1.027115045330754</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2955998898305483</v>
+        <v>-0.2933018219134493</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2298158359208951</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8617517444851468</v>
+        <v>-0.8683673468519736</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.080523875145169</v>
+        <v>-1.065147282349182</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2988171849144869</v>
+        <v>-0.2974808426805026</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2440208685799979</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8035091019492181</v>
+        <v>-0.8088828032293387</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.125390503188284</v>
+        <v>-1.110784392752175</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2956046118879122</v>
+        <v>-0.2942446593671084</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2552468559871334</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.681015785891356</v>
+        <v>-0.6841937304972621</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.165486279274737</v>
+        <v>-1.152581683508754</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2643823685977917</v>
+        <v>-0.2626855759850296</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2629721033953138</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5381798467098038</v>
+        <v>-0.5403881955369887</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.227571889495322</v>
+        <v>-1.215769107114248</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2346570174920283</v>
+        <v>-0.2324644088560564</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2662158839728082</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4180396892382862</v>
+        <v>-0.4191477986996819</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.226585766515827</v>
+        <v>-1.214850666956969</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1970568487223974</v>
+        <v>-0.1945667504724997</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2645076540405381</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2832170814032758</v>
+        <v>-0.2839505743138019</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.259722804067009</v>
+        <v>-1.248452040148936</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1756155602520394</v>
+        <v>-0.1732812898951505</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2577768122823427</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1360399974851763</v>
+        <v>-0.1357047314123392</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.280636796131732</v>
+        <v>-1.27083301803471</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1395469120874342</v>
+        <v>-0.1364287802081375</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2458413008259631</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005601261183308723</v>
+        <v>0.005590243049459619</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.267112823841516</v>
+        <v>-1.257453068494094</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1126296110940711</v>
+        <v>-0.1095398115589579</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2286482249585149</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1591515485235547</v>
+        <v>0.1586793427871645</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.306119378696029</v>
+        <v>-1.298135166703231</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09335259891550161</v>
+        <v>-0.09079009578602409</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2072769690928748</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2706346008279185</v>
+        <v>0.2696020442843453</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.310566769723264</v>
+        <v>-1.302379509263819</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02231239391383768</v>
+        <v>-0.01795708300519867</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1830878384541517</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4321793312852507</v>
+        <v>0.4308886356057842</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.288729615443899</v>
+        <v>-1.281746479612249</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.009194518556917742</v>
+        <v>-0.005673437782568103</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1576004144090916</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5657159654981585</v>
+        <v>0.5634210456193021</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.288969653359898</v>
+        <v>-1.283469243540512</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07004790008584408</v>
+        <v>0.07667766862476258</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1323883978955209</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7036944816713767</v>
+        <v>0.7015050210736475</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.236840501091101</v>
+        <v>-1.231920117317915</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1097179039999853</v>
+        <v>0.1170402409522761</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1089283236505372</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8895263271703786</v>
+        <v>0.8875037125995072</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.196579452996911</v>
+        <v>-1.192857684784596</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1536834060961561</v>
+        <v>0.1612024954386095</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08865815606301528</v>
       </c>
       <c r="E87" t="n">
-        <v>1.011879555526445</v>
+        <v>1.010464512336396</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.063143556007767</v>
+        <v>-1.058880325217724</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1842886338907267</v>
+        <v>0.1918108712714227</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.072302761285364</v>
       </c>
       <c r="E88" t="n">
-        <v>1.146728921686518</v>
+        <v>1.14604264934963</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9486761634494166</v>
+        <v>-0.9448048634205776</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2159453064583261</v>
+        <v>0.2233290301563477</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.06080001112599828</v>
       </c>
       <c r="E89" t="n">
-        <v>1.25147045009435</v>
+        <v>1.250231697045887</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8634634902795614</v>
+        <v>-0.8605460458382305</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2278134106329333</v>
+        <v>0.2352915754782329</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05427812709777335</v>
       </c>
       <c r="E90" t="n">
-        <v>1.328625719382267</v>
+        <v>1.327909540682076</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7465138695669202</v>
+        <v>-0.7452058596771194</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1963377502642835</v>
+        <v>0.2012313757124073</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05171321123752296</v>
       </c>
       <c r="E91" t="n">
-        <v>1.320574611576814</v>
+        <v>1.318813284180079</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6051449162064203</v>
+        <v>-0.6048899251087695</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1912505204642397</v>
+        <v>0.1964825600234431</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05195379320641486</v>
       </c>
       <c r="E92" t="n">
-        <v>1.307174986797182</v>
+        <v>1.304813958115231</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4731256364264463</v>
+        <v>-0.473851259241366</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1667839672427417</v>
+        <v>0.1709299336082478</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05397121141440456</v>
       </c>
       <c r="E93" t="n">
-        <v>1.27668938445583</v>
+        <v>1.274082808790956</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3371288103269456</v>
+        <v>-0.33881615882498</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1601085521493055</v>
+        <v>0.1640813764114685</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05678574368284497</v>
       </c>
       <c r="E94" t="n">
-        <v>1.196491536206439</v>
+        <v>1.192332977687962</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.187804764327392</v>
+        <v>-0.1898793215292663</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1412880055159132</v>
+        <v>0.145511098818363</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06064805878678831</v>
       </c>
       <c r="E95" t="n">
-        <v>1.16389202618518</v>
+        <v>1.159544585372148</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09435052703840625</v>
+        <v>-0.09833122139617569</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1227570784008402</v>
+        <v>0.127734126862393</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06589515078300395</v>
       </c>
       <c r="E96" t="n">
-        <v>1.122479583103759</v>
+        <v>1.119791158444577</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01192094795533098</v>
+        <v>0.008661154355117261</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05558738641845466</v>
+        <v>0.05879838542590807</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07248508555444028</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0286948017993</v>
+        <v>1.024248197781626</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06744447245921274</v>
+        <v>0.06490400559743344</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03143091496385301</v>
+        <v>0.03384388627680696</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08143700138780095</v>
       </c>
       <c r="E98" t="n">
-        <v>1.003433368921545</v>
+        <v>1.000436436514589</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013472703129083</v>
+        <v>0.09909170091208437</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.007848732208205655</v>
+        <v>-0.005843431847668578</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09274863716727276</v>
       </c>
       <c r="E99" t="n">
-        <v>0.978236470827764</v>
+        <v>0.9765569924253362</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1651705976434086</v>
+        <v>0.1652414285038671</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02526525378539777</v>
+        <v>-0.02355744303878652</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.109372425323645</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8877051870470337</v>
+        <v>0.8861988507479489</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1541351495839694</v>
+        <v>0.1542406088650966</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03577812749656506</v>
+        <v>-0.03466844401604807</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1300815482485565</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8064511719672496</v>
+        <v>0.8044065211286799</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1418814107246436</v>
+        <v>0.1421001993825044</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06448194019260441</v>
+        <v>-0.06373742914822918</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.160204026389518</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6847432914509165</v>
+        <v>0.6817809874646286</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1369704710661854</v>
+        <v>0.1368917701101204</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0825438096095298</v>
+        <v>-0.08147347660704532</v>
       </c>
     </row>
   </sheetData>
